--- a/Experiment 1(a)/Exp 1(a).xlsx
+++ b/Experiment 1(a)/Exp 1(a).xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shaan\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shaan\Downloads\Experiment-1-main\Experiment-1-main\Experiment 1(a)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C4CF4D-C690-478E-A559-09965474DEB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9250553C-5D34-40D3-B4F1-26ABDD14720B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D461FEC8-A806-400C-A684-A0B07A924605}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
   <si>
     <t>n - value</t>
   </si>
@@ -127,6 +127,30 @@
   </si>
   <si>
     <t>Design And Analysis Of Algorithms (Experiment 1 (a))</t>
+  </si>
+  <si>
+    <t>This graph is not valid for n = 0 and n = 1</t>
+  </si>
+  <si>
+    <t>This graph is not valid for n = 0.</t>
+  </si>
+  <si>
+    <t>This graph is not valid for n = 0 and n = 1.</t>
+  </si>
+  <si>
+    <t>This graph is not valid for n = 0</t>
+  </si>
+  <si>
+    <t>This graph started very slowly and increased at a very rapid rate.</t>
+  </si>
+  <si>
+    <t>Aim: To implement the various functions e.g. linear, non-linear, quadratic, exponential etc.</t>
+  </si>
+  <si>
+    <t>Result -&gt; Thus, we have plotted 10 graphs, and n!, and done the analysis of it.</t>
+  </si>
+  <si>
+    <t>Conclusion -&gt; After performing the above experiment, I have understood some of the functions and how to plot them on the excel sheet. I have even learnt to do the analysis of it.</t>
   </si>
 </sst>
 </file>
@@ -2000,6 +2024,434 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN"/>
+              <a:t>n!</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$10:$A$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$N$10:$N$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5040</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40320</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>362880</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3628800</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>39916800</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>479001600</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6227020800</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>87178291200</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1307674368000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20922789888000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>355687428096000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6402373705728000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.21645100408832E+17</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.43290200817664E+18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-479D-4F78-9227-871DC69E4754}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1881749120"/>
+        <c:axId val="1881751200"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1881749120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1881751200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1881751200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1881749120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -9934,6 +10386,46 @@
 </file>
 
 <file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -11325,7 +11817,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -11841,7 +12333,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -12357,7 +12849,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -12873,7 +13365,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -13389,7 +13881,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -13905,7 +14397,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -14421,7 +14913,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -14937,7 +15429,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -15453,19 +15945,535 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>125</xdr:row>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>145774</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -15497,13 +16505,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>127</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>142</xdr:row>
+      <xdr:row>145</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -15535,13 +16543,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>143</xdr:row>
+      <xdr:row>146</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>158</xdr:row>
+      <xdr:row>161</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -15573,13 +16581,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>159</xdr:row>
+      <xdr:row>162</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>174</xdr:row>
+      <xdr:row>177</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -15611,13 +16619,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>175</xdr:row>
+      <xdr:row>178</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>190</xdr:row>
+      <xdr:row>193</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -15649,13 +16657,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>191</xdr:row>
+      <xdr:row>194</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>206</xdr:row>
+      <xdr:row>209</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -15687,13 +16695,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>207</xdr:row>
+      <xdr:row>210</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>222</xdr:row>
+      <xdr:row>225</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -15725,13 +16733,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>223</xdr:row>
+      <xdr:row>226</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>238</xdr:row>
+      <xdr:row>241</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -15763,13 +16771,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>239</xdr:row>
+      <xdr:row>242</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>254</xdr:row>
+      <xdr:row>257</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -15801,13 +16809,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>255</xdr:row>
+      <xdr:row>258</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>270</xdr:row>
+      <xdr:row>273</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -15830,6 +16838,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>275</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>290</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DD4DFC9-F3D0-F93C-1461-AD57F1958C2C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -24313,10 +25357,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB096F49-8939-40AD-B61E-157057E9D98C}">
-  <dimension ref="A1:N261"/>
+  <dimension ref="A1:N293"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+    <sheetView tabSelected="1" topLeftCell="A266" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q291" sqref="Q291"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24361,3696 +25405,3761 @@
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J6" t="s">
-        <v>8</v>
-      </c>
-      <c r="K6" t="s">
-        <v>9</v>
-      </c>
-      <c r="L6" t="s">
-        <v>10</v>
-      </c>
-      <c r="N6" t="s">
-        <v>22</v>
-      </c>
+      <c r="B6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7" t="e">
-        <f>-nan</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E7" t="e">
-        <f>-inf</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" t="e">
-        <f>-nan</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I7" t="e">
-        <f>-inf</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7" t="e">
-        <f>-nan</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" t="e">
-        <f>-inf</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8" t="e">
-        <f>-inf</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
         <v>2</v>
       </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>-0.36651299999999998</v>
-      </c>
-      <c r="I9">
-        <v>0.69314699999999996</v>
-      </c>
-      <c r="J9">
-        <v>2</v>
-      </c>
-      <c r="K9">
+      <c r="E9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" t="s">
         <v>8</v>
       </c>
-      <c r="L9">
-        <v>2</v>
-      </c>
-      <c r="N9">
-        <v>2</v>
+      <c r="K9" t="s">
+        <v>9</v>
+      </c>
+      <c r="L9" t="s">
+        <v>10</v>
+      </c>
+      <c r="N9" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>3</v>
-      </c>
-      <c r="D10">
-        <v>0.66444899999999996</v>
-      </c>
-      <c r="E10">
-        <v>1.584962</v>
-      </c>
-      <c r="F10">
-        <v>1.258953</v>
-      </c>
-      <c r="G10">
-        <v>2.5121060000000002</v>
-      </c>
-      <c r="H10">
-        <v>9.4048000000000007E-2</v>
-      </c>
-      <c r="I10">
-        <v>1.0986119999999999</v>
+        <v>0</v>
+      </c>
+      <c r="D10" t="e">
+        <f>-nan</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E10" t="e">
+        <f>-inf</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" t="e">
+        <f>-nan</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I10" t="e">
+        <f>-inf</f>
+        <v>#NAME?</v>
       </c>
       <c r="J10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>27</v>
-      </c>
-      <c r="L10">
-        <v>4.7548880000000002</v>
+        <v>0</v>
+      </c>
+      <c r="L10" t="e">
+        <f>-nan</f>
+        <v>#NAME?</v>
       </c>
       <c r="N10">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>4</v>
-      </c>
-      <c r="D11">
         <v>1</v>
       </c>
+      <c r="D11" t="e">
+        <f>-inf</f>
+        <v>#NAME?</v>
+      </c>
       <c r="E11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>1.4142140000000001</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>4</v>
-      </c>
-      <c r="H11">
-        <v>0.32663399999999998</v>
+        <v>0</v>
+      </c>
+      <c r="H11" t="e">
+        <f>-inf</f>
+        <v>#NAME?</v>
       </c>
       <c r="I11">
-        <v>1.3862939999999999</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K11">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>24</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12">
-        <v>1.2153229999999999</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>2.3219280000000002</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1.523787</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>5.3913500000000001</v>
+        <v>1</v>
       </c>
       <c r="H12">
-        <v>0.475885</v>
+        <v>-0.36651299999999998</v>
       </c>
       <c r="I12">
-        <v>1.6094379999999999</v>
+        <v>0.69314699999999996</v>
       </c>
       <c r="J12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K12">
-        <v>125</v>
+        <v>8</v>
       </c>
       <c r="L12">
-        <v>11.609640000000001</v>
+        <v>2</v>
       </c>
       <c r="N12">
-        <v>120</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>0.66444899999999996</v>
+      </c>
+      <c r="E13">
+        <v>1.584962</v>
+      </c>
+      <c r="F13">
+        <v>1.258953</v>
+      </c>
+      <c r="G13">
+        <v>2.5121060000000002</v>
+      </c>
+      <c r="H13">
+        <v>9.4048000000000007E-2</v>
+      </c>
+      <c r="I13">
+        <v>1.0986119999999999</v>
+      </c>
+      <c r="J13">
+        <v>3</v>
+      </c>
+      <c r="K13">
+        <v>27</v>
+      </c>
+      <c r="L13">
+        <v>4.7548880000000002</v>
+      </c>
+      <c r="N13">
         <v>6</v>
-      </c>
-      <c r="C13">
-        <v>6</v>
-      </c>
-      <c r="D13">
-        <v>1.3701430000000001</v>
-      </c>
-      <c r="E13">
-        <v>2.5849630000000001</v>
-      </c>
-      <c r="F13">
-        <v>1.607782</v>
-      </c>
-      <c r="G13">
-        <v>6.6820310000000003</v>
-      </c>
-      <c r="H13">
-        <v>0.58319799999999999</v>
-      </c>
-      <c r="I13">
-        <v>1.7917590000000001</v>
-      </c>
-      <c r="J13">
-        <v>6</v>
-      </c>
-      <c r="K13">
-        <v>216</v>
-      </c>
-      <c r="L13">
-        <v>15.509774999999999</v>
-      </c>
-      <c r="N13">
-        <v>720</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C14">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D14">
-        <v>1.4892110000000001</v>
+        <v>1</v>
       </c>
       <c r="E14">
-        <v>2.8073549999999998</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1.675516</v>
+        <v>1.4142140000000001</v>
       </c>
       <c r="G14">
-        <v>7.8812420000000003</v>
+        <v>4</v>
       </c>
       <c r="H14">
-        <v>0.66573000000000004</v>
+        <v>0.32663399999999998</v>
       </c>
       <c r="I14">
-        <v>1.94591</v>
+        <v>1.3862939999999999</v>
       </c>
       <c r="J14">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K14">
-        <v>343</v>
+        <v>64</v>
       </c>
       <c r="L14">
-        <v>19.651484</v>
+        <v>8</v>
       </c>
       <c r="N14">
-        <v>5040</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C15">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D15">
-        <v>1.584962</v>
+        <v>1.2153229999999999</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2.3219280000000002</v>
       </c>
       <c r="F15">
-        <v>1.732051</v>
+        <v>1.523787</v>
       </c>
       <c r="G15">
-        <v>9</v>
+        <v>5.3913500000000001</v>
       </c>
       <c r="H15">
-        <v>0.73209900000000006</v>
+        <v>0.475885</v>
       </c>
       <c r="I15">
-        <v>2.0794419999999998</v>
+        <v>1.6094379999999999</v>
       </c>
       <c r="J15">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K15">
-        <v>512</v>
+        <v>125</v>
       </c>
       <c r="L15">
-        <v>24</v>
+        <v>11.609640000000001</v>
       </c>
       <c r="N15">
-        <v>40320</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C16">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D16">
-        <v>1.6644490000000001</v>
+        <v>1.3701430000000001</v>
       </c>
       <c r="E16">
-        <v>3.1699250000000001</v>
+        <v>2.5849630000000001</v>
       </c>
       <c r="F16">
-        <v>1.7804279999999999</v>
+        <v>1.607782</v>
       </c>
       <c r="G16">
-        <v>10.048425</v>
+        <v>6.6820310000000003</v>
       </c>
       <c r="H16">
-        <v>0.78719499999999998</v>
+        <v>0.58319799999999999</v>
       </c>
       <c r="I16">
-        <v>2.197225</v>
+        <v>1.7917590000000001</v>
       </c>
       <c r="J16">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K16">
-        <v>729</v>
+        <v>216</v>
       </c>
       <c r="L16">
-        <v>28.529325</v>
+        <v>15.509774999999999</v>
       </c>
       <c r="N16">
-        <v>362880</v>
+        <v>720</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C17">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D17">
-        <v>1.732021</v>
+        <v>1.4892110000000001</v>
       </c>
       <c r="E17">
-        <v>3.3219280000000002</v>
+        <v>2.8073549999999998</v>
       </c>
       <c r="F17">
-        <v>1.822616</v>
+        <v>1.675516</v>
       </c>
       <c r="G17">
-        <v>11.035206000000001</v>
+        <v>7.8812420000000003</v>
       </c>
       <c r="H17">
-        <v>0.834032</v>
+        <v>0.66573000000000004</v>
       </c>
       <c r="I17">
-        <v>2.3025850000000001</v>
+        <v>1.94591</v>
       </c>
       <c r="J17">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K17">
-        <v>1000</v>
+        <v>343</v>
       </c>
       <c r="L17">
-        <v>33.219279999999998</v>
+        <v>19.651484</v>
       </c>
       <c r="N17">
-        <v>3628800</v>
+        <v>5040</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C18">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D18">
-        <v>1.790535</v>
+        <v>1.584962</v>
       </c>
       <c r="E18">
-        <v>3.4594320000000001</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>1.859955</v>
+        <v>1.732051</v>
       </c>
       <c r="G18">
-        <v>11.967668</v>
+        <v>9</v>
       </c>
       <c r="H18">
-        <v>0.87459100000000001</v>
+        <v>0.73209900000000006</v>
       </c>
       <c r="I18">
-        <v>2.3978950000000001</v>
+        <v>2.0794419999999998</v>
       </c>
       <c r="J18">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="K18">
-        <v>1331</v>
+        <v>512</v>
       </c>
       <c r="L18">
-        <v>38.053749000000003</v>
+        <v>24</v>
       </c>
       <c r="N18">
-        <v>39916800</v>
+        <v>40320</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C19">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D19">
-        <v>1.841958</v>
+        <v>1.6644490000000001</v>
       </c>
       <c r="E19">
-        <v>3.5849630000000001</v>
+        <v>3.1699250000000001</v>
       </c>
       <c r="F19">
-        <v>1.8934</v>
+        <v>1.7804279999999999</v>
       </c>
       <c r="G19">
-        <v>12.851955999999999</v>
+        <v>10.048425</v>
       </c>
       <c r="H19">
-        <v>0.91023500000000002</v>
+        <v>0.78719499999999998</v>
       </c>
       <c r="I19">
-        <v>2.4849070000000002</v>
+        <v>2.197225</v>
       </c>
       <c r="J19">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K19">
-        <v>1728</v>
+        <v>729</v>
       </c>
       <c r="L19">
-        <v>43.019550000000002</v>
+        <v>28.529325</v>
       </c>
       <c r="N19">
-        <v>479001600</v>
+        <v>362880</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C20">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D20">
-        <v>1.887697</v>
+        <v>1.732021</v>
       </c>
       <c r="E20">
-        <v>3.70044</v>
+        <v>3.3219280000000002</v>
       </c>
       <c r="F20">
-        <v>1.9236530000000001</v>
+        <v>1.822616</v>
       </c>
       <c r="G20">
-        <v>13.693254</v>
+        <v>11.035206000000001</v>
       </c>
       <c r="H20">
-        <v>0.94193899999999997</v>
+        <v>0.834032</v>
       </c>
       <c r="I20">
-        <v>2.5649489999999999</v>
+        <v>2.3025850000000001</v>
       </c>
       <c r="J20">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K20">
-        <v>2197</v>
+        <v>1000</v>
       </c>
       <c r="L20">
-        <v>48.105716999999999</v>
+        <v>33.219279999999998</v>
       </c>
       <c r="N20">
-        <v>6227020800</v>
+        <v>3628800</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C21">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D21">
-        <v>1.9287890000000001</v>
+        <v>1.790535</v>
       </c>
       <c r="E21">
-        <v>3.8073549999999998</v>
+        <v>3.4594320000000001</v>
       </c>
       <c r="F21">
-        <v>1.951244</v>
+        <v>1.859955</v>
       </c>
       <c r="G21">
-        <v>14.495952000000001</v>
+        <v>11.967668</v>
       </c>
       <c r="H21">
-        <v>0.97042200000000001</v>
+        <v>0.87459100000000001</v>
       </c>
       <c r="I21">
-        <v>2.6390570000000002</v>
+        <v>2.3978950000000001</v>
       </c>
       <c r="J21">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K21">
-        <v>2744</v>
+        <v>1331</v>
       </c>
       <c r="L21">
-        <v>53.302967000000002</v>
+        <v>38.053749000000003</v>
       </c>
       <c r="N21">
-        <v>87178291200</v>
+        <v>39916800</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C22">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D22">
-        <v>1.966021</v>
+        <v>1.841958</v>
       </c>
       <c r="E22">
-        <v>3.9068909999999999</v>
+        <v>3.5849630000000001</v>
       </c>
       <c r="F22">
-        <v>1.976586</v>
+        <v>1.8934</v>
       </c>
       <c r="G22">
-        <v>15.263794000000001</v>
+        <v>12.851955999999999</v>
       </c>
       <c r="H22">
-        <v>0.99622900000000003</v>
+        <v>0.91023500000000002</v>
       </c>
       <c r="I22">
-        <v>2.7080500000000001</v>
+        <v>2.4849070000000002</v>
       </c>
       <c r="J22">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K22">
-        <v>3375</v>
+        <v>1728</v>
       </c>
       <c r="L22">
-        <v>58.603358999999998</v>
+        <v>43.019550000000002</v>
       </c>
       <c r="N22">
-        <v>1307674368000</v>
+        <v>479001600</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C23">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D23">
-        <v>2</v>
+        <v>1.887697</v>
       </c>
       <c r="E23">
-        <v>4</v>
+        <v>3.70044</v>
       </c>
       <c r="F23">
-        <v>2</v>
+        <v>1.9236530000000001</v>
       </c>
       <c r="G23">
-        <v>16</v>
+        <v>13.693254</v>
       </c>
       <c r="H23">
-        <v>1.019781</v>
+        <v>0.94193899999999997</v>
       </c>
       <c r="I23">
-        <v>2.772589</v>
+        <v>2.5649489999999999</v>
       </c>
       <c r="J23">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K23">
-        <v>4096</v>
+        <v>2197</v>
       </c>
       <c r="L23">
-        <v>64</v>
+        <v>48.105716999999999</v>
       </c>
       <c r="N23">
-        <v>20922789888000</v>
+        <v>6227020800</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C24">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D24">
-        <v>2.0312060000000001</v>
+        <v>1.9287890000000001</v>
       </c>
       <c r="E24">
-        <v>4.0874629999999996</v>
+        <v>3.8073549999999998</v>
       </c>
       <c r="F24">
-        <v>2.0217480000000001</v>
+        <v>1.951244</v>
       </c>
       <c r="G24">
-        <v>16.707352</v>
+        <v>14.495952000000001</v>
       </c>
       <c r="H24">
-        <v>1.041412</v>
+        <v>0.97042200000000001</v>
       </c>
       <c r="I24">
-        <v>2.8332130000000002</v>
+        <v>2.6390570000000002</v>
       </c>
       <c r="J24">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K24">
-        <v>4913</v>
+        <v>2744</v>
       </c>
       <c r="L24">
-        <v>69.486869999999996</v>
+        <v>53.302967000000002</v>
       </c>
       <c r="N24">
-        <v>355687428096000</v>
+        <v>87178291200</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C25">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D25">
-        <v>2.0600209999999999</v>
+        <v>1.966021</v>
       </c>
       <c r="E25">
-        <v>4.1699250000000001</v>
+        <v>3.9068909999999999</v>
       </c>
       <c r="F25">
-        <v>2.0420389999999999</v>
+        <v>1.976586</v>
       </c>
       <c r="G25">
-        <v>17.388275</v>
+        <v>15.263794000000001</v>
       </c>
       <c r="H25">
-        <v>1.061385</v>
+        <v>0.99622900000000003</v>
       </c>
       <c r="I25">
-        <v>2.8903720000000002</v>
+        <v>2.7080500000000001</v>
       </c>
       <c r="J25">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K25">
-        <v>5832</v>
+        <v>3375</v>
       </c>
       <c r="L25">
-        <v>75.058646999999993</v>
+        <v>58.603358999999998</v>
       </c>
       <c r="N25">
-        <v>6402373705728000</v>
+        <v>1307674368000</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C26">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D26">
-        <v>2.0867589999999998</v>
+        <v>2</v>
       </c>
       <c r="E26">
-        <v>4.2479279999999999</v>
+        <v>4</v>
       </c>
       <c r="F26">
-        <v>2.0610499999999998</v>
+        <v>2</v>
       </c>
       <c r="G26">
-        <v>18.044888</v>
+        <v>16</v>
       </c>
       <c r="H26">
-        <v>1.0799179999999999</v>
+        <v>1.019781</v>
       </c>
       <c r="I26">
-        <v>2.944439</v>
+        <v>2.772589</v>
       </c>
       <c r="J26">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K26">
-        <v>6859</v>
+        <v>4096</v>
       </c>
       <c r="L26">
-        <v>80.710624999999993</v>
+        <v>64</v>
       </c>
       <c r="N26">
-        <v>1.21645100408832E+17</v>
+        <v>20922789888000</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C27">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D27">
-        <v>2.111675</v>
+        <v>2.0312060000000001</v>
       </c>
       <c r="E27">
-        <v>4.3219279999999998</v>
+        <v>4.0874629999999996</v>
       </c>
       <c r="F27">
-        <v>2.0789249999999999</v>
+        <v>2.0217480000000001</v>
       </c>
       <c r="G27">
-        <v>18.679061999999998</v>
+        <v>16.707352</v>
       </c>
       <c r="H27">
-        <v>1.097189</v>
+        <v>1.041412</v>
       </c>
       <c r="I27">
-        <v>2.9957319999999998</v>
+        <v>2.8332130000000002</v>
       </c>
       <c r="J27">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K27">
-        <v>8000</v>
+        <v>4913</v>
       </c>
       <c r="L27">
-        <v>86.438559999999995</v>
+        <v>69.486869999999996</v>
       </c>
       <c r="N27">
-        <v>2.43290200817664E+18</v>
+        <v>355687428096000</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C28">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D28">
-        <v>2.1349819999999999</v>
+        <v>2.0600209999999999</v>
       </c>
       <c r="E28">
-        <v>4.3923170000000002</v>
+        <v>4.1699250000000001</v>
       </c>
       <c r="F28">
-        <v>2.0957859999999999</v>
+        <v>2.0420389999999999</v>
       </c>
       <c r="G28">
-        <v>19.292452000000001</v>
+        <v>17.388275</v>
       </c>
       <c r="H28">
-        <v>1.1133439999999999</v>
+        <v>1.061385</v>
       </c>
       <c r="I28">
-        <v>3.0445229999999999</v>
+        <v>2.8903720000000002</v>
       </c>
       <c r="J28">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K28">
-        <v>9261</v>
+        <v>5832</v>
       </c>
       <c r="L28">
-        <v>92.238663000000003</v>
+        <v>75.058646999999993</v>
+      </c>
+      <c r="N28">
+        <v>6402373705728000</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C29">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D29">
-        <v>2.15686</v>
+        <v>2.0867589999999998</v>
       </c>
       <c r="E29">
-        <v>4.4594319999999996</v>
+        <v>4.2479279999999999</v>
       </c>
       <c r="F29">
-        <v>2.1117370000000002</v>
+        <v>2.0610499999999998</v>
       </c>
       <c r="G29">
-        <v>19.88653</v>
+        <v>18.044888</v>
       </c>
       <c r="H29">
-        <v>1.1285080000000001</v>
+        <v>1.0799179999999999</v>
       </c>
       <c r="I29">
-        <v>3.091043</v>
+        <v>2.944439</v>
       </c>
       <c r="J29">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K29">
-        <v>10648</v>
+        <v>6859</v>
       </c>
       <c r="L29">
-        <v>98.107498000000007</v>
+        <v>80.710624999999993</v>
+      </c>
+      <c r="N29">
+        <v>1.21645100408832E+17</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C30">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D30">
-        <v>2.1774589999999998</v>
+        <v>2.111675</v>
       </c>
       <c r="E30">
-        <v>4.5235620000000001</v>
+        <v>4.3219279999999998</v>
       </c>
       <c r="F30">
-        <v>2.1268669999999998</v>
+        <v>2.0789249999999999</v>
       </c>
       <c r="G30">
-        <v>20.462612</v>
+        <v>18.679061999999998</v>
       </c>
       <c r="H30">
-        <v>1.142787</v>
+        <v>1.097189</v>
       </c>
       <c r="I30">
-        <v>3.135494</v>
+        <v>2.9957319999999998</v>
       </c>
       <c r="J30">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K30">
-        <v>12167</v>
+        <v>8000</v>
       </c>
       <c r="L30">
-        <v>104.04192399999999</v>
+        <v>86.438559999999995</v>
+      </c>
+      <c r="N30">
+        <v>2.43290200817664E+18</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C31">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D31">
-        <v>2.1969099999999999</v>
+        <v>2.1349819999999999</v>
       </c>
       <c r="E31">
-        <v>4.584962</v>
+        <v>4.3923170000000002</v>
       </c>
       <c r="F31">
-        <v>2.1412529999999999</v>
+        <v>2.0957859999999999</v>
       </c>
       <c r="G31">
-        <v>21.021881</v>
+        <v>19.292452000000001</v>
       </c>
       <c r="H31">
-        <v>1.156269</v>
+        <v>1.1133439999999999</v>
       </c>
       <c r="I31">
-        <v>3.1780539999999999</v>
+        <v>3.0445229999999999</v>
       </c>
       <c r="J31">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K31">
-        <v>13824</v>
+        <v>9261</v>
       </c>
       <c r="L31">
-        <v>110.039101</v>
+        <v>92.238663000000003</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C32">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D32">
-        <v>2.2153230000000002</v>
+        <v>2.15686</v>
       </c>
       <c r="E32">
-        <v>4.6438560000000004</v>
+        <v>4.4594319999999996</v>
       </c>
       <c r="F32">
-        <v>2.1549610000000001</v>
+        <v>2.1117370000000002</v>
       </c>
       <c r="G32">
-        <v>21.565401000000001</v>
+        <v>19.88653</v>
       </c>
       <c r="H32">
-        <v>1.1690320000000001</v>
+        <v>1.1285080000000001</v>
       </c>
       <c r="I32">
-        <v>3.2188759999999998</v>
+        <v>3.091043</v>
       </c>
       <c r="J32">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K32">
-        <v>15625</v>
+        <v>10648</v>
       </c>
       <c r="L32">
-        <v>116.096405</v>
+        <v>98.107498000000007</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C33">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D33">
-        <v>2.232796</v>
+        <v>2.1774589999999998</v>
       </c>
       <c r="E33">
-        <v>4.7004400000000004</v>
+        <v>4.5235620000000001</v>
       </c>
       <c r="F33">
-        <v>2.16805</v>
+        <v>2.1268669999999998</v>
       </c>
       <c r="G33">
-        <v>22.094132999999999</v>
+        <v>20.462612</v>
       </c>
       <c r="H33">
-        <v>1.1811430000000001</v>
+        <v>1.142787</v>
       </c>
       <c r="I33">
-        <v>3.2580960000000001</v>
+        <v>3.135494</v>
       </c>
       <c r="J33">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K33">
-        <v>17576</v>
+        <v>12167</v>
       </c>
       <c r="L33">
-        <v>122.211433</v>
+        <v>104.04192399999999</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C34">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D34">
-        <v>2.2494109999999998</v>
+        <v>2.1969099999999999</v>
       </c>
       <c r="E34">
-        <v>4.7548880000000002</v>
+        <v>4.584962</v>
       </c>
       <c r="F34">
-        <v>2.1805699999999999</v>
+        <v>2.1412529999999999</v>
       </c>
       <c r="G34">
-        <v>22.608955000000002</v>
+        <v>21.021881</v>
       </c>
       <c r="H34">
-        <v>1.1926600000000001</v>
+        <v>1.156269</v>
       </c>
       <c r="I34">
-        <v>3.2958370000000001</v>
+        <v>3.1780539999999999</v>
       </c>
       <c r="J34">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K34">
-        <v>19683</v>
+        <v>13824</v>
       </c>
       <c r="L34">
-        <v>128.381958</v>
+        <v>110.039101</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C35">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D35">
-        <v>2.2652429999999999</v>
+        <v>2.2153230000000002</v>
       </c>
       <c r="E35">
-        <v>4.8073550000000003</v>
+        <v>4.6438560000000004</v>
       </c>
       <c r="F35">
-        <v>2.1925680000000001</v>
+        <v>2.1549610000000001</v>
       </c>
       <c r="G35">
-        <v>23.110661</v>
+        <v>21.565401000000001</v>
       </c>
       <c r="H35">
-        <v>1.2036340000000001</v>
+        <v>1.1690320000000001</v>
       </c>
       <c r="I35">
-        <v>3.3322050000000001</v>
+        <v>3.2188759999999998</v>
       </c>
       <c r="J35">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K35">
-        <v>21952</v>
+        <v>15625</v>
       </c>
       <c r="L35">
-        <v>134.605942</v>
+        <v>116.096405</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C36">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D36">
-        <v>2.280357</v>
+        <v>2.232796</v>
       </c>
       <c r="E36">
-        <v>4.8579809999999997</v>
+        <v>4.7004400000000004</v>
       </c>
       <c r="F36">
-        <v>2.2040829999999998</v>
+        <v>2.16805</v>
       </c>
       <c r="G36">
-        <v>23.599979000000001</v>
+        <v>22.094132999999999</v>
       </c>
       <c r="H36">
-        <v>1.21411</v>
+        <v>1.1811430000000001</v>
       </c>
       <c r="I36">
-        <v>3.3672960000000001</v>
+        <v>3.2580960000000001</v>
       </c>
       <c r="J36">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K36">
-        <v>24389</v>
+        <v>17576</v>
       </c>
       <c r="L36">
-        <v>140.88145399999999</v>
+        <v>122.211433</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C37">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D37">
-        <v>2.2948089999999999</v>
+        <v>2.2494109999999998</v>
       </c>
       <c r="E37">
-        <v>4.9068899999999998</v>
+        <v>4.7548880000000002</v>
       </c>
       <c r="F37">
-        <v>2.21515</v>
+        <v>2.1805699999999999</v>
       </c>
       <c r="G37">
-        <v>24.077576000000001</v>
+        <v>22.608955000000002</v>
       </c>
       <c r="H37">
-        <v>1.2241280000000001</v>
+        <v>1.1926600000000001</v>
       </c>
       <c r="I37">
-        <v>3.4011969999999998</v>
+        <v>3.2958370000000001</v>
       </c>
       <c r="J37">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K37">
-        <v>27000</v>
+        <v>19683</v>
       </c>
       <c r="L37">
-        <v>147.20671100000001</v>
+        <v>128.381958</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C38">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D38">
-        <v>2.3086509999999998</v>
+        <v>2.2652429999999999</v>
       </c>
       <c r="E38">
-        <v>4.9541959999999996</v>
+        <v>4.8073550000000003</v>
       </c>
       <c r="F38">
-        <v>2.2258019999999998</v>
+        <v>2.1925680000000001</v>
       </c>
       <c r="G38">
-        <v>24.544062</v>
+        <v>23.110661</v>
       </c>
       <c r="H38">
-        <v>1.233722</v>
+        <v>1.2036340000000001</v>
       </c>
       <c r="I38">
-        <v>3.4339870000000001</v>
+        <v>3.3322050000000001</v>
       </c>
       <c r="J38">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K38">
-        <v>29791</v>
+        <v>21952</v>
       </c>
       <c r="L38">
-        <v>153.58007799999999</v>
+        <v>134.605942</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C39">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D39">
-        <v>2.3219280000000002</v>
+        <v>2.280357</v>
       </c>
       <c r="E39">
-        <v>5</v>
+        <v>4.8579809999999997</v>
       </c>
       <c r="F39">
-        <v>2.2360679999999999</v>
+        <v>2.2040829999999998</v>
       </c>
       <c r="G39">
-        <v>25</v>
+        <v>23.599979000000001</v>
       </c>
       <c r="H39">
-        <v>1.2429250000000001</v>
+        <v>1.21411</v>
       </c>
       <c r="I39">
-        <v>3.4657360000000001</v>
+        <v>3.3672960000000001</v>
       </c>
       <c r="J39">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K39">
-        <v>32768</v>
+        <v>24389</v>
       </c>
       <c r="L39">
-        <v>160</v>
+        <v>140.88145399999999</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C40">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D40">
-        <v>2.3346809999999998</v>
+        <v>2.2948089999999999</v>
       </c>
       <c r="E40">
-        <v>5.0443939999999996</v>
+        <v>4.9068899999999998</v>
       </c>
       <c r="F40">
-        <v>2.2459730000000002</v>
+        <v>2.21515</v>
       </c>
       <c r="G40">
-        <v>25.445910999999999</v>
+        <v>24.077576000000001</v>
       </c>
       <c r="H40">
-        <v>1.251765</v>
+        <v>1.2241280000000001</v>
       </c>
       <c r="I40">
-        <v>3.4965079999999999</v>
+        <v>3.4011969999999998</v>
       </c>
       <c r="J40">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K40">
-        <v>35937</v>
+        <v>27000</v>
       </c>
       <c r="L40">
-        <v>166.465012</v>
+        <v>147.20671100000001</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C41">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D41">
-        <v>2.346946</v>
+        <v>2.3086509999999998</v>
       </c>
       <c r="E41">
-        <v>5.0874629999999996</v>
+        <v>4.9541959999999996</v>
       </c>
       <c r="F41">
-        <v>2.2555399999999999</v>
+        <v>2.2258019999999998</v>
       </c>
       <c r="G41">
-        <v>25.882277999999999</v>
+        <v>24.544062</v>
       </c>
       <c r="H41">
-        <v>1.2602660000000001</v>
+        <v>1.233722</v>
       </c>
       <c r="I41">
-        <v>3.5263610000000001</v>
+        <v>3.4339870000000001</v>
       </c>
       <c r="J41">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K41">
-        <v>39304</v>
+        <v>29791</v>
       </c>
       <c r="L41">
-        <v>172.97373999999999</v>
+        <v>153.58007799999999</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C42">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D42">
-        <v>2.3587570000000002</v>
+        <v>2.3219280000000002</v>
       </c>
       <c r="E42">
-        <v>5.129283</v>
+        <v>5</v>
       </c>
       <c r="F42">
-        <v>2.2647919999999999</v>
+        <v>2.2360679999999999</v>
       </c>
       <c r="G42">
-        <v>26.309543999999999</v>
+        <v>25</v>
       </c>
       <c r="H42">
-        <v>1.2684530000000001</v>
+        <v>1.2429250000000001</v>
       </c>
       <c r="I42">
-        <v>3.555348</v>
+        <v>3.4657360000000001</v>
       </c>
       <c r="J42">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K42">
-        <v>42875</v>
+        <v>32768</v>
       </c>
       <c r="L42">
-        <v>179.524902</v>
+        <v>160</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C43">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D43">
-        <v>2.3701430000000001</v>
+        <v>2.3346809999999998</v>
       </c>
       <c r="E43">
-        <v>5.1699250000000001</v>
+        <v>5.0443939999999996</v>
       </c>
       <c r="F43">
-        <v>2.2737470000000002</v>
+        <v>2.2459730000000002</v>
       </c>
       <c r="G43">
-        <v>26.728124999999999</v>
+        <v>25.445910999999999</v>
       </c>
       <c r="H43">
-        <v>1.2763450000000001</v>
+        <v>1.251765</v>
       </c>
       <c r="I43">
-        <v>3.5835189999999999</v>
+        <v>3.4965079999999999</v>
       </c>
       <c r="J43">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K43">
-        <v>46656</v>
+        <v>35937</v>
       </c>
       <c r="L43">
-        <v>186.11729399999999</v>
+        <v>166.465012</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C44">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D44">
-        <v>2.381132</v>
+        <v>2.346946</v>
       </c>
       <c r="E44">
-        <v>5.209454</v>
+        <v>5.0874629999999996</v>
       </c>
       <c r="F44">
-        <v>2.2824230000000001</v>
+        <v>2.2555399999999999</v>
       </c>
       <c r="G44">
-        <v>27.138404999999999</v>
+        <v>25.882277999999999</v>
       </c>
       <c r="H44">
-        <v>1.283962</v>
+        <v>1.2602660000000001</v>
       </c>
       <c r="I44">
-        <v>3.6109179999999999</v>
+        <v>3.5263610000000001</v>
       </c>
       <c r="J44">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K44">
-        <v>50653</v>
+        <v>39304</v>
       </c>
       <c r="L44">
-        <v>192.74977100000001</v>
+        <v>172.97373999999999</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C45">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D45">
-        <v>2.3917480000000002</v>
+        <v>2.3587570000000002</v>
       </c>
       <c r="E45">
-        <v>5.2479279999999999</v>
+        <v>5.129283</v>
       </c>
       <c r="F45">
-        <v>2.2908360000000001</v>
+        <v>2.2647919999999999</v>
       </c>
       <c r="G45">
-        <v>27.540742999999999</v>
+        <v>26.309543999999999</v>
       </c>
       <c r="H45">
-        <v>1.29132</v>
+        <v>1.2684530000000001</v>
       </c>
       <c r="I45">
-        <v>3.6375860000000002</v>
+        <v>3.555348</v>
       </c>
       <c r="J45">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K45">
-        <v>54872</v>
+        <v>42875</v>
       </c>
       <c r="L45">
-        <v>199.42124899999999</v>
+        <v>179.524902</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C46">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D46">
-        <v>2.4020130000000002</v>
+        <v>2.3701430000000001</v>
       </c>
       <c r="E46">
-        <v>5.2854020000000004</v>
+        <v>5.1699250000000001</v>
       </c>
       <c r="F46">
-        <v>2.2989999999999999</v>
+        <v>2.2737470000000002</v>
       </c>
       <c r="G46">
-        <v>27.935476000000001</v>
+        <v>26.728124999999999</v>
       </c>
       <c r="H46">
-        <v>1.2984359999999999</v>
+        <v>1.2763450000000001</v>
       </c>
       <c r="I46">
-        <v>3.6635620000000002</v>
+        <v>3.5835189999999999</v>
       </c>
       <c r="J46">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K46">
-        <v>59319</v>
+        <v>46656</v>
       </c>
       <c r="L46">
-        <v>206.13069200000001</v>
+        <v>186.11729399999999</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C47">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D47">
-        <v>2.4119489999999999</v>
+        <v>2.381132</v>
       </c>
       <c r="E47">
-        <v>5.3219279999999998</v>
+        <v>5.209454</v>
       </c>
       <c r="F47">
-        <v>2.3069310000000001</v>
+        <v>2.2824230000000001</v>
       </c>
       <c r="G47">
-        <v>28.322918000000001</v>
+        <v>27.138404999999999</v>
       </c>
       <c r="H47">
-        <v>1.305323</v>
+        <v>1.283962</v>
       </c>
       <c r="I47">
-        <v>3.688879</v>
+        <v>3.6109179999999999</v>
       </c>
       <c r="J47">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K47">
-        <v>64000</v>
+        <v>50653</v>
       </c>
       <c r="L47">
-        <v>212.87712099999999</v>
+        <v>192.74977100000001</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C48">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D48">
-        <v>2.4215740000000001</v>
+        <v>2.3917480000000002</v>
       </c>
       <c r="E48">
-        <v>5.3575520000000001</v>
+        <v>5.2479279999999999</v>
       </c>
       <c r="F48">
-        <v>2.3146390000000001</v>
+        <v>2.2908360000000001</v>
       </c>
       <c r="G48">
-        <v>28.703363</v>
+        <v>27.540742999999999</v>
       </c>
       <c r="H48">
-        <v>1.3119940000000001</v>
+        <v>1.29132</v>
       </c>
       <c r="I48">
-        <v>3.7135720000000001</v>
+        <v>3.6375860000000002</v>
       </c>
       <c r="J48">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K48">
-        <v>68921</v>
+        <v>54872</v>
       </c>
       <c r="L48">
-        <v>219.659637</v>
+        <v>199.42124899999999</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C49">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D49">
-        <v>2.4309050000000001</v>
+        <v>2.4020130000000002</v>
       </c>
       <c r="E49">
-        <v>5.3923170000000002</v>
+        <v>5.2854020000000004</v>
       </c>
       <c r="F49">
-        <v>2.322136</v>
+        <v>2.2989999999999999</v>
       </c>
       <c r="G49">
-        <v>29.077086999999999</v>
+        <v>27.935476000000001</v>
       </c>
       <c r="H49">
-        <v>1.318462</v>
+        <v>1.2984359999999999</v>
       </c>
       <c r="I49">
-        <v>3.73767</v>
+        <v>3.6635620000000002</v>
       </c>
       <c r="J49">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K49">
-        <v>74088</v>
+        <v>59319</v>
       </c>
       <c r="L49">
-        <v>226.47732500000001</v>
+        <v>206.13069200000001</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C50">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D50">
-        <v>2.4399600000000001</v>
+        <v>2.4119489999999999</v>
       </c>
       <c r="E50">
-        <v>5.4262649999999999</v>
+        <v>5.3219279999999998</v>
       </c>
       <c r="F50">
-        <v>2.329434</v>
+        <v>2.3069310000000001</v>
       </c>
       <c r="G50">
-        <v>29.444348999999999</v>
+        <v>28.322918000000001</v>
       </c>
       <c r="H50">
-        <v>1.324738</v>
+        <v>1.305323</v>
       </c>
       <c r="I50">
-        <v>3.7612000000000001</v>
+        <v>3.688879</v>
       </c>
       <c r="J50">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K50">
-        <v>79507</v>
+        <v>64000</v>
       </c>
       <c r="L50">
-        <v>233.32939099999999</v>
+        <v>212.87712099999999</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C51">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D51">
-        <v>2.4487510000000001</v>
+        <v>2.4215740000000001</v>
       </c>
       <c r="E51">
-        <v>5.4594319999999996</v>
+        <v>5.3575520000000001</v>
       </c>
       <c r="F51">
-        <v>2.3365429999999998</v>
+        <v>2.3146390000000001</v>
       </c>
       <c r="G51">
-        <v>29.805392999999999</v>
+        <v>28.703363</v>
       </c>
       <c r="H51">
-        <v>1.330832</v>
+        <v>1.3119940000000001</v>
       </c>
       <c r="I51">
-        <v>3.7841900000000002</v>
+        <v>3.7135720000000001</v>
       </c>
       <c r="J51">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K51">
-        <v>85184</v>
+        <v>68921</v>
       </c>
       <c r="L51">
-        <v>240.21499600000001</v>
+        <v>219.659637</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C52">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D52">
-        <v>2.4572929999999999</v>
+        <v>2.4309050000000001</v>
       </c>
       <c r="E52">
-        <v>5.4918529999999999</v>
+        <v>5.3923170000000002</v>
       </c>
       <c r="F52">
-        <v>2.3434699999999999</v>
+        <v>2.322136</v>
       </c>
       <c r="G52">
-        <v>30.160450000000001</v>
+        <v>29.077086999999999</v>
       </c>
       <c r="H52">
-        <v>1.3367530000000001</v>
+        <v>1.318462</v>
       </c>
       <c r="I52">
-        <v>3.8066629999999999</v>
+        <v>3.73767</v>
       </c>
       <c r="J52">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K52">
-        <v>91125</v>
+        <v>74088</v>
       </c>
       <c r="L52">
-        <v>247.13339199999999</v>
+        <v>226.47732500000001</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C53">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D53">
-        <v>2.4655990000000001</v>
+        <v>2.4399600000000001</v>
       </c>
       <c r="E53">
-        <v>5.5235620000000001</v>
+        <v>5.4262649999999999</v>
       </c>
       <c r="F53">
-        <v>2.3502260000000001</v>
+        <v>2.329434</v>
       </c>
       <c r="G53">
-        <v>30.509737000000001</v>
+        <v>29.444348999999999</v>
       </c>
       <c r="H53">
-        <v>1.3425100000000001</v>
+        <v>1.324738</v>
       </c>
       <c r="I53">
-        <v>3.8286410000000002</v>
+        <v>3.7612000000000001</v>
       </c>
       <c r="J53">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K53">
-        <v>97336</v>
+        <v>79507</v>
       </c>
       <c r="L53">
-        <v>254.08384699999999</v>
+        <v>233.32939099999999</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C54">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D54">
-        <v>2.4736799999999999</v>
+        <v>2.4487510000000001</v>
       </c>
       <c r="E54">
-        <v>5.554589</v>
+        <v>5.4594319999999996</v>
       </c>
       <c r="F54">
-        <v>2.3568169999999999</v>
+        <v>2.3365429999999998</v>
       </c>
       <c r="G54">
-        <v>30.853456000000001</v>
+        <v>29.805392999999999</v>
       </c>
       <c r="H54">
-        <v>1.348112</v>
+        <v>1.330832</v>
       </c>
       <c r="I54">
-        <v>3.8501470000000002</v>
+        <v>3.7841900000000002</v>
       </c>
       <c r="J54">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K54">
-        <v>103823</v>
+        <v>85184</v>
       </c>
       <c r="L54">
-        <v>261.065674</v>
+        <v>240.21499600000001</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C55">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D55">
-        <v>2.4815480000000001</v>
+        <v>2.4572929999999999</v>
       </c>
       <c r="E55">
-        <v>5.584962</v>
+        <v>5.4918529999999999</v>
       </c>
       <c r="F55">
-        <v>2.3632529999999998</v>
+        <v>2.3434699999999999</v>
       </c>
       <c r="G55">
-        <v>31.191807000000001</v>
+        <v>30.160450000000001</v>
       </c>
       <c r="H55">
-        <v>1.3535649999999999</v>
+        <v>1.3367530000000001</v>
       </c>
       <c r="I55">
-        <v>3.8712010000000001</v>
+        <v>3.8066629999999999</v>
       </c>
       <c r="J55">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K55">
-        <v>110592</v>
+        <v>91125</v>
       </c>
       <c r="L55">
-        <v>268.07818600000002</v>
+        <v>247.13339199999999</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C56">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D56">
-        <v>2.4892120000000002</v>
+        <v>2.4655990000000001</v>
       </c>
       <c r="E56">
-        <v>5.6147099999999996</v>
+        <v>5.5235620000000001</v>
       </c>
       <c r="F56">
-        <v>2.3695379999999999</v>
+        <v>2.3502260000000001</v>
       </c>
       <c r="G56">
-        <v>31.524967</v>
+        <v>30.509737000000001</v>
       </c>
       <c r="H56">
-        <v>1.3588769999999999</v>
+        <v>1.3425100000000001</v>
       </c>
       <c r="I56">
-        <v>3.8918200000000001</v>
+        <v>3.8286410000000002</v>
       </c>
       <c r="J56">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K56">
-        <v>117649</v>
+        <v>97336</v>
       </c>
       <c r="L56">
-        <v>275.120789</v>
+        <v>254.08384699999999</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C57">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D57">
-        <v>2.4966810000000002</v>
+        <v>2.4736799999999999</v>
       </c>
       <c r="E57">
-        <v>5.6438560000000004</v>
+        <v>5.554589</v>
       </c>
       <c r="F57">
-        <v>2.37568</v>
+        <v>2.3568169999999999</v>
       </c>
       <c r="G57">
-        <v>31.853113</v>
+        <v>30.853456000000001</v>
       </c>
       <c r="H57">
-        <v>1.364055</v>
+        <v>1.348112</v>
       </c>
       <c r="I57">
-        <v>3.912023</v>
+        <v>3.8501470000000002</v>
       </c>
       <c r="J57">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K57">
-        <v>125000</v>
+        <v>103823</v>
       </c>
       <c r="L57">
-        <v>282.19281000000001</v>
+        <v>261.065674</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C58">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D58">
-        <v>2.5039660000000001</v>
+        <v>2.4815480000000001</v>
       </c>
       <c r="E58">
-        <v>5.6724249999999996</v>
+        <v>5.584962</v>
       </c>
       <c r="F58">
-        <v>2.3816850000000001</v>
+        <v>2.3632529999999998</v>
       </c>
       <c r="G58">
-        <v>32.176411000000002</v>
+        <v>31.191807000000001</v>
       </c>
       <c r="H58">
-        <v>1.3691040000000001</v>
+        <v>1.3535649999999999</v>
       </c>
       <c r="I58">
-        <v>3.931826</v>
+        <v>3.8712010000000001</v>
       </c>
       <c r="J58">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K58">
-        <v>132651</v>
+        <v>110592</v>
       </c>
       <c r="L58">
-        <v>289.293701</v>
+        <v>268.07818600000002</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C59">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D59">
-        <v>2.5110730000000001</v>
+        <v>2.4892120000000002</v>
       </c>
       <c r="E59">
-        <v>5.7004400000000004</v>
+        <v>5.6147099999999996</v>
       </c>
       <c r="F59">
-        <v>2.387559</v>
+        <v>2.3695379999999999</v>
       </c>
       <c r="G59">
-        <v>32.495013999999998</v>
+        <v>31.524967</v>
       </c>
       <c r="H59">
-        <v>1.3740300000000001</v>
+        <v>1.3588769999999999</v>
       </c>
       <c r="I59">
-        <v>3.951244</v>
+        <v>3.8918200000000001</v>
       </c>
       <c r="J59">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K59">
-        <v>140608</v>
+        <v>117649</v>
       </c>
       <c r="L59">
-        <v>296.42285199999998</v>
+        <v>275.120789</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C60">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D60">
-        <v>2.5180120000000001</v>
+        <v>2.4966810000000002</v>
       </c>
       <c r="E60">
-        <v>5.7279210000000003</v>
+        <v>5.6438560000000004</v>
       </c>
       <c r="F60">
-        <v>2.3933070000000001</v>
+        <v>2.37568</v>
       </c>
       <c r="G60">
-        <v>32.809074000000003</v>
+        <v>31.853113</v>
       </c>
       <c r="H60">
-        <v>1.3788400000000001</v>
+        <v>1.364055</v>
       </c>
       <c r="I60">
-        <v>3.9702920000000002</v>
+        <v>3.912023</v>
       </c>
       <c r="J60">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K60">
-        <v>148877</v>
+        <v>125000</v>
       </c>
       <c r="L60">
-        <v>303.57977299999999</v>
+        <v>282.19281000000001</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C61">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D61">
-        <v>2.524788</v>
+        <v>2.5039660000000001</v>
       </c>
       <c r="E61">
-        <v>5.7548880000000002</v>
+        <v>5.6724249999999996</v>
       </c>
       <c r="F61">
-        <v>2.3989349999999998</v>
+        <v>2.3816850000000001</v>
       </c>
       <c r="G61">
-        <v>33.118729000000002</v>
+        <v>32.176411000000002</v>
       </c>
       <c r="H61">
-        <v>1.383537</v>
+        <v>1.3691040000000001</v>
       </c>
       <c r="I61">
-        <v>3.9889839999999999</v>
+        <v>3.931826</v>
       </c>
       <c r="J61">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K61">
-        <v>157464</v>
+        <v>132651</v>
       </c>
       <c r="L61">
-        <v>310.76391599999999</v>
+        <v>289.293701</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C62">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D62">
-        <v>2.531409</v>
+        <v>2.5110730000000001</v>
       </c>
       <c r="E62">
-        <v>5.7813600000000003</v>
+        <v>5.7004400000000004</v>
       </c>
       <c r="F62">
-        <v>2.4044460000000001</v>
+        <v>2.387559</v>
       </c>
       <c r="G62">
-        <v>33.424121999999997</v>
+        <v>32.495013999999998</v>
       </c>
       <c r="H62">
-        <v>1.388126</v>
+        <v>1.3740300000000001</v>
       </c>
       <c r="I62">
-        <v>4.007333</v>
+        <v>3.951244</v>
       </c>
       <c r="J62">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K62">
-        <v>166375</v>
+        <v>140608</v>
       </c>
       <c r="L62">
-        <v>317.97479199999998</v>
+        <v>296.42285199999998</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C63">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D63">
-        <v>2.5378810000000001</v>
+        <v>2.5180120000000001</v>
       </c>
       <c r="E63">
-        <v>5.8073550000000003</v>
+        <v>5.7279210000000003</v>
       </c>
       <c r="F63">
-        <v>2.4098449999999998</v>
+        <v>2.3933070000000001</v>
       </c>
       <c r="G63">
-        <v>33.725372</v>
+        <v>32.809074000000003</v>
       </c>
       <c r="H63">
-        <v>1.392612</v>
+        <v>1.3788400000000001</v>
       </c>
       <c r="I63">
-        <v>4.0253519999999998</v>
+        <v>3.9702920000000002</v>
       </c>
       <c r="J63">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K63">
-        <v>175616</v>
+        <v>148877</v>
       </c>
       <c r="L63">
-        <v>325.211884</v>
+        <v>303.57977299999999</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C64">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D64">
-        <v>2.5442109999999998</v>
+        <v>2.524788</v>
       </c>
       <c r="E64">
-        <v>5.8328899999999999</v>
+        <v>5.7548880000000002</v>
       </c>
       <c r="F64">
-        <v>2.4151379999999998</v>
+        <v>2.3989349999999998</v>
       </c>
       <c r="G64">
-        <v>34.022606000000003</v>
+        <v>33.118729000000002</v>
       </c>
       <c r="H64">
-        <v>1.397</v>
+        <v>1.383537</v>
       </c>
       <c r="I64">
-        <v>4.0430510000000002</v>
+        <v>3.9889839999999999</v>
       </c>
       <c r="J64">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K64">
-        <v>185193</v>
+        <v>157464</v>
       </c>
       <c r="L64">
-        <v>332.47473100000002</v>
+        <v>310.76391599999999</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C65">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D65">
-        <v>2.5504039999999999</v>
+        <v>2.531409</v>
       </c>
       <c r="E65">
-        <v>5.8579809999999997</v>
+        <v>5.7813600000000003</v>
       </c>
       <c r="F65">
-        <v>2.4203269999999999</v>
+        <v>2.4044460000000001</v>
       </c>
       <c r="G65">
-        <v>34.315941000000002</v>
+        <v>33.424121999999997</v>
       </c>
       <c r="H65">
-        <v>1.401292</v>
+        <v>1.388126</v>
       </c>
       <c r="I65">
-        <v>4.0604430000000002</v>
+        <v>4.007333</v>
       </c>
       <c r="J65">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K65">
-        <v>195112</v>
+        <v>166375</v>
       </c>
       <c r="L65">
-        <v>339.76290899999998</v>
+        <v>317.97479199999998</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C66">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D66">
-        <v>2.5564640000000001</v>
+        <v>2.5378810000000001</v>
       </c>
       <c r="E66">
-        <v>5.8826429999999998</v>
+        <v>5.8073550000000003</v>
       </c>
       <c r="F66">
-        <v>2.4254159999999998</v>
+        <v>2.4098449999999998</v>
       </c>
       <c r="G66">
-        <v>34.605488000000001</v>
+        <v>33.725372</v>
       </c>
       <c r="H66">
-        <v>1.4054930000000001</v>
+        <v>1.392612</v>
       </c>
       <c r="I66">
-        <v>4.0775379999999997</v>
+        <v>4.0253519999999998</v>
       </c>
       <c r="J66">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K66">
-        <v>205379</v>
+        <v>175616</v>
       </c>
       <c r="L66">
-        <v>347.07592799999998</v>
+        <v>325.211884</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C67">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D67">
-        <v>2.5623990000000001</v>
+        <v>2.5442109999999998</v>
       </c>
       <c r="E67">
-        <v>5.9068899999999998</v>
+        <v>5.8328899999999999</v>
       </c>
       <c r="F67">
-        <v>2.4304100000000002</v>
+        <v>2.4151379999999998</v>
       </c>
       <c r="G67">
-        <v>34.891356999999999</v>
+        <v>34.022606000000003</v>
       </c>
       <c r="H67">
-        <v>1.4096070000000001</v>
+        <v>1.397</v>
       </c>
       <c r="I67">
-        <v>4.0943449999999997</v>
+        <v>4.0430510000000002</v>
       </c>
       <c r="J67">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K67">
-        <v>216000</v>
+        <v>185193</v>
       </c>
       <c r="L67">
-        <v>354.41342200000003</v>
+        <v>332.47473100000002</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C68">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D68">
-        <v>2.5682119999999999</v>
+        <v>2.5504039999999999</v>
       </c>
       <c r="E68">
-        <v>5.9307369999999997</v>
+        <v>5.8579809999999997</v>
       </c>
       <c r="F68">
-        <v>2.435311</v>
+        <v>2.4203269999999999</v>
       </c>
       <c r="G68">
-        <v>35.173645</v>
+        <v>34.315941000000002</v>
       </c>
       <c r="H68">
-        <v>1.4136359999999999</v>
+        <v>1.401292</v>
       </c>
       <c r="I68">
-        <v>4.1108739999999999</v>
+        <v>4.0604430000000002</v>
       </c>
       <c r="J68">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K68">
-        <v>226981</v>
+        <v>195112</v>
       </c>
       <c r="L68">
-        <v>361.77496300000001</v>
+        <v>339.76290899999998</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C69">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D69">
-        <v>2.5739070000000002</v>
+        <v>2.5564640000000001</v>
       </c>
       <c r="E69">
-        <v>5.9541959999999996</v>
+        <v>5.8826429999999998</v>
       </c>
       <c r="F69">
-        <v>2.4401220000000001</v>
+        <v>2.4254159999999998</v>
       </c>
       <c r="G69">
-        <v>35.452454000000003</v>
+        <v>34.605488000000001</v>
       </c>
       <c r="H69">
-        <v>1.417583</v>
+        <v>1.4054930000000001</v>
       </c>
       <c r="I69">
-        <v>4.1271339999999999</v>
+        <v>4.0775379999999997</v>
       </c>
       <c r="J69">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K69">
-        <v>238328</v>
+        <v>205379</v>
       </c>
       <c r="L69">
-        <v>369.16015599999997</v>
+        <v>347.07592799999998</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C70">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D70">
-        <v>2.5794890000000001</v>
+        <v>2.5623990000000001</v>
       </c>
       <c r="E70">
-        <v>5.9772800000000004</v>
+        <v>5.9068899999999998</v>
       </c>
       <c r="F70">
-        <v>2.4448479999999999</v>
+        <v>2.4304100000000002</v>
       </c>
       <c r="G70">
-        <v>35.727874999999997</v>
+        <v>34.891356999999999</v>
       </c>
       <c r="H70">
-        <v>1.4214530000000001</v>
+        <v>1.4096070000000001</v>
       </c>
       <c r="I70">
-        <v>4.143135</v>
+        <v>4.0943449999999997</v>
       </c>
       <c r="J70">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K70">
-        <v>250047</v>
+        <v>216000</v>
       </c>
       <c r="L70">
-        <v>376.56863399999997</v>
+        <v>354.41342200000003</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C71">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D71">
-        <v>2.5849630000000001</v>
+        <v>2.5682119999999999</v>
       </c>
       <c r="E71">
-        <v>6</v>
+        <v>5.9307369999999997</v>
       </c>
       <c r="F71">
-        <v>2.4494899999999999</v>
+        <v>2.435311</v>
       </c>
       <c r="G71">
-        <v>36</v>
+        <v>35.173645</v>
       </c>
       <c r="H71">
-        <v>1.4252469999999999</v>
+        <v>1.4136359999999999</v>
       </c>
       <c r="I71">
-        <v>4.1588830000000003</v>
+        <v>4.1108739999999999</v>
       </c>
       <c r="J71">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K71">
-        <v>262144</v>
+        <v>226981</v>
       </c>
       <c r="L71">
-        <v>384</v>
+        <v>361.77496300000001</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C72">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D72">
-        <v>2.5903309999999999</v>
+        <v>2.5739070000000002</v>
       </c>
       <c r="E72">
-        <v>6.0223680000000002</v>
+        <v>5.9541959999999996</v>
       </c>
       <c r="F72">
-        <v>2.4540510000000002</v>
+        <v>2.4401220000000001</v>
       </c>
       <c r="G72">
-        <v>36.268912999999998</v>
+        <v>35.452454000000003</v>
       </c>
       <c r="H72">
-        <v>1.428968</v>
+        <v>1.417583</v>
       </c>
       <c r="I72">
-        <v>4.1743870000000003</v>
+        <v>4.1271339999999999</v>
       </c>
       <c r="J72">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K72">
-        <v>274625</v>
+        <v>238328</v>
       </c>
       <c r="L72">
-        <v>391.45391799999999</v>
+        <v>369.16015599999997</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C73">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D73">
-        <v>2.5955979999999998</v>
+        <v>2.5794890000000001</v>
       </c>
       <c r="E73">
-        <v>6.0443939999999996</v>
+        <v>5.9772800000000004</v>
       </c>
       <c r="F73">
-        <v>2.4585349999999999</v>
+        <v>2.4448479999999999</v>
       </c>
       <c r="G73">
-        <v>36.534697999999999</v>
+        <v>35.727874999999997</v>
       </c>
       <c r="H73">
-        <v>1.4326179999999999</v>
+        <v>1.4214530000000001</v>
       </c>
       <c r="I73">
-        <v>4.1896550000000001</v>
+        <v>4.143135</v>
       </c>
       <c r="J73">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K73">
-        <v>287496</v>
+        <v>250047</v>
       </c>
       <c r="L73">
-        <v>398.93002300000001</v>
+        <v>376.56863399999997</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C74">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D74">
-        <v>2.6007669999999998</v>
+        <v>2.5849630000000001</v>
       </c>
       <c r="E74">
-        <v>6.0660889999999998</v>
+        <v>6</v>
       </c>
       <c r="F74">
-        <v>2.4629430000000001</v>
+        <v>2.4494899999999999</v>
       </c>
       <c r="G74">
-        <v>36.797440000000002</v>
+        <v>36</v>
       </c>
       <c r="H74">
-        <v>1.4362010000000001</v>
+        <v>1.4252469999999999</v>
       </c>
       <c r="I74">
-        <v>4.2046929999999998</v>
+        <v>4.1588830000000003</v>
       </c>
       <c r="J74">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="K74">
-        <v>300763</v>
+        <v>262144</v>
       </c>
       <c r="L74">
-        <v>406.42797899999999</v>
+        <v>384</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C75">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D75">
-        <v>2.6058409999999999</v>
+        <v>2.5903309999999999</v>
       </c>
       <c r="E75">
-        <v>6.0874629999999996</v>
+        <v>6.0223680000000002</v>
       </c>
       <c r="F75">
-        <v>2.4672779999999999</v>
+        <v>2.4540510000000002</v>
       </c>
       <c r="G75">
-        <v>37.057205000000003</v>
+        <v>36.268912999999998</v>
       </c>
       <c r="H75">
-        <v>1.4397180000000001</v>
+        <v>1.428968</v>
       </c>
       <c r="I75">
-        <v>4.2195080000000003</v>
+        <v>4.1743870000000003</v>
       </c>
       <c r="J75">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K75">
-        <v>314432</v>
+        <v>274625</v>
       </c>
       <c r="L75">
-        <v>413.94747899999999</v>
+        <v>391.45391799999999</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C76">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D76">
-        <v>2.610824</v>
+        <v>2.5955979999999998</v>
       </c>
       <c r="E76">
-        <v>6.1085240000000001</v>
+        <v>6.0443939999999996</v>
       </c>
       <c r="F76">
-        <v>2.471543</v>
+        <v>2.4585349999999999</v>
       </c>
       <c r="G76">
-        <v>37.314072000000003</v>
+        <v>36.534697999999999</v>
       </c>
       <c r="H76">
-        <v>1.4431719999999999</v>
+        <v>1.4326179999999999</v>
       </c>
       <c r="I76">
-        <v>4.2341069999999998</v>
+        <v>4.1896550000000001</v>
       </c>
       <c r="J76">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K76">
-        <v>328509</v>
+        <v>287496</v>
       </c>
       <c r="L76">
-        <v>421.48818999999997</v>
+        <v>398.93002300000001</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C77">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D77">
-        <v>2.6157180000000002</v>
+        <v>2.6007669999999998</v>
       </c>
       <c r="E77">
-        <v>6.129283</v>
+        <v>6.0660889999999998</v>
       </c>
       <c r="F77">
-        <v>2.4757389999999999</v>
+        <v>2.4629430000000001</v>
       </c>
       <c r="G77">
-        <v>37.568111000000002</v>
+        <v>36.797440000000002</v>
       </c>
       <c r="H77">
-        <v>1.4465650000000001</v>
+        <v>1.4362010000000001</v>
       </c>
       <c r="I77">
-        <v>4.2484950000000001</v>
+        <v>4.2046929999999998</v>
       </c>
       <c r="J77">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K77">
-        <v>343000</v>
+        <v>300763</v>
       </c>
       <c r="L77">
-        <v>429.04980499999999</v>
+        <v>406.42797899999999</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C78">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D78">
-        <v>2.6205270000000001</v>
+        <v>2.6058409999999999</v>
       </c>
       <c r="E78">
-        <v>6.1497469999999996</v>
+        <v>6.0874629999999996</v>
       </c>
       <c r="F78">
-        <v>2.4798680000000002</v>
+        <v>2.4672779999999999</v>
       </c>
       <c r="G78">
-        <v>37.819389000000001</v>
+        <v>37.057205000000003</v>
       </c>
       <c r="H78">
-        <v>1.4498979999999999</v>
+        <v>1.4397180000000001</v>
       </c>
       <c r="I78">
-        <v>4.2626799999999996</v>
+        <v>4.2195080000000003</v>
       </c>
       <c r="J78">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K78">
-        <v>357911</v>
+        <v>314432</v>
       </c>
       <c r="L78">
-        <v>436.63204999999999</v>
+        <v>413.94747899999999</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C79">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D79">
-        <v>2.6252529999999998</v>
+        <v>2.610824</v>
       </c>
       <c r="E79">
-        <v>6.1699250000000001</v>
+        <v>6.1085240000000001</v>
       </c>
       <c r="F79">
-        <v>2.4839329999999999</v>
+        <v>2.471543</v>
       </c>
       <c r="G79">
-        <v>38.067974</v>
+        <v>37.314072000000003</v>
       </c>
       <c r="H79">
-        <v>1.453174</v>
+        <v>1.4431719999999999</v>
       </c>
       <c r="I79">
-        <v>4.2766659999999996</v>
+        <v>4.2341069999999998</v>
       </c>
       <c r="J79">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K79">
-        <v>373248</v>
+        <v>328509</v>
       </c>
       <c r="L79">
-        <v>444.23458900000003</v>
+        <v>421.48818999999997</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C80">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D80">
-        <v>2.629899</v>
+        <v>2.6157180000000002</v>
       </c>
       <c r="E80">
-        <v>6.1898249999999999</v>
+        <v>6.129283</v>
       </c>
       <c r="F80">
-        <v>2.4879359999999999</v>
+        <v>2.4757389999999999</v>
       </c>
       <c r="G80">
-        <v>38.313927</v>
+        <v>37.568111000000002</v>
       </c>
       <c r="H80">
-        <v>1.456394</v>
+        <v>1.4465650000000001</v>
       </c>
       <c r="I80">
-        <v>4.2904600000000004</v>
+        <v>4.2484950000000001</v>
       </c>
       <c r="J80">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K80">
-        <v>389017</v>
+        <v>343000</v>
       </c>
       <c r="L80">
-        <v>451.85717799999998</v>
+        <v>429.04980499999999</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C81">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D81">
-        <v>2.6344660000000002</v>
+        <v>2.6205270000000001</v>
       </c>
       <c r="E81">
-        <v>6.209454</v>
+        <v>6.1497469999999996</v>
       </c>
       <c r="F81">
-        <v>2.4918779999999998</v>
+        <v>2.4798680000000002</v>
       </c>
       <c r="G81">
-        <v>38.557312000000003</v>
+        <v>37.819389000000001</v>
       </c>
       <c r="H81">
-        <v>1.45956</v>
+        <v>1.4498979999999999</v>
       </c>
       <c r="I81">
-        <v>4.3040649999999996</v>
+        <v>4.2626799999999996</v>
       </c>
       <c r="J81">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K81">
-        <v>405224</v>
+        <v>357911</v>
       </c>
       <c r="L81">
-        <v>459.49954200000002</v>
+        <v>436.63204999999999</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C82">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D82">
-        <v>2.6389589999999998</v>
+        <v>2.6252529999999998</v>
       </c>
       <c r="E82">
-        <v>6.2288189999999997</v>
+        <v>6.1699250000000001</v>
       </c>
       <c r="F82">
-        <v>2.4957600000000002</v>
+        <v>2.4839329999999999</v>
       </c>
       <c r="G82">
-        <v>38.798183000000002</v>
+        <v>38.067974</v>
       </c>
       <c r="H82">
-        <v>1.462674</v>
+        <v>1.453174</v>
       </c>
       <c r="I82">
-        <v>4.317488</v>
+        <v>4.2766659999999996</v>
       </c>
       <c r="J82">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K82">
-        <v>421875</v>
+        <v>373248</v>
       </c>
       <c r="L82">
-        <v>467.161407</v>
+        <v>444.23458900000003</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C83">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D83">
-        <v>2.6433779999999998</v>
+        <v>2.629899</v>
       </c>
       <c r="E83">
-        <v>6.2479279999999999</v>
+        <v>6.1898249999999999</v>
       </c>
       <c r="F83">
-        <v>2.4995850000000002</v>
+        <v>2.4879359999999999</v>
       </c>
       <c r="G83">
-        <v>39.036597999999998</v>
+        <v>38.313927</v>
       </c>
       <c r="H83">
-        <v>1.4657370000000001</v>
+        <v>1.456394</v>
       </c>
       <c r="I83">
-        <v>4.3307330000000004</v>
+        <v>4.2904600000000004</v>
       </c>
       <c r="J83">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="K83">
-        <v>438976</v>
+        <v>389017</v>
       </c>
       <c r="L83">
-        <v>474.84249899999998</v>
+        <v>451.85717799999998</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C84">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D84">
-        <v>2.647726</v>
+        <v>2.6344660000000002</v>
       </c>
       <c r="E84">
-        <v>6.2667869999999999</v>
+        <v>6.209454</v>
       </c>
       <c r="F84">
-        <v>2.503355</v>
+        <v>2.4918779999999998</v>
       </c>
       <c r="G84">
-        <v>39.272613999999997</v>
+        <v>38.557312000000003</v>
       </c>
       <c r="H84">
-        <v>1.4687509999999999</v>
+        <v>1.45956</v>
       </c>
       <c r="I84">
-        <v>4.3438049999999997</v>
+        <v>4.3040649999999996</v>
       </c>
       <c r="J84">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="K84">
-        <v>456533</v>
+        <v>405224</v>
       </c>
       <c r="L84">
-        <v>482.54257200000001</v>
+        <v>459.49954200000002</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C85">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D85">
-        <v>2.6520049999999999</v>
+        <v>2.6389589999999998</v>
       </c>
       <c r="E85">
-        <v>6.2854020000000004</v>
+        <v>6.2288189999999997</v>
       </c>
       <c r="F85">
-        <v>2.5070709999999998</v>
+        <v>2.4957600000000002</v>
       </c>
       <c r="G85">
-        <v>39.506283000000003</v>
+        <v>38.798183000000002</v>
       </c>
       <c r="H85">
-        <v>1.4717169999999999</v>
+        <v>1.462674</v>
       </c>
       <c r="I85">
-        <v>4.3567090000000004</v>
+        <v>4.317488</v>
       </c>
       <c r="J85">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="K85">
-        <v>474552</v>
+        <v>421875</v>
       </c>
       <c r="L85">
-        <v>490.26138300000002</v>
+        <v>467.161407</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C86">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D86">
-        <v>2.6562169999999998</v>
+        <v>2.6433779999999998</v>
       </c>
       <c r="E86">
-        <v>6.3037809999999999</v>
+        <v>6.2479279999999999</v>
       </c>
       <c r="F86">
-        <v>2.5107330000000001</v>
+        <v>2.4995850000000002</v>
       </c>
       <c r="G86">
-        <v>39.737651999999997</v>
+        <v>39.036597999999998</v>
       </c>
       <c r="H86">
-        <v>1.474637</v>
+        <v>1.4657370000000001</v>
       </c>
       <c r="I86">
-        <v>4.3694480000000002</v>
+        <v>4.3307330000000004</v>
       </c>
       <c r="J86">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K86">
-        <v>493039</v>
+        <v>438976</v>
       </c>
       <c r="L86">
-        <v>497.99868800000002</v>
+        <v>474.84249899999998</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C87">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D87">
-        <v>2.6603650000000001</v>
+        <v>2.647726</v>
       </c>
       <c r="E87">
-        <v>6.3219279999999998</v>
+        <v>6.2667869999999999</v>
       </c>
       <c r="F87">
-        <v>2.5143439999999999</v>
+        <v>2.503355</v>
       </c>
       <c r="G87">
-        <v>39.966774000000001</v>
+        <v>39.272613999999997</v>
       </c>
       <c r="H87">
-        <v>1.477511</v>
+        <v>1.4687509999999999</v>
       </c>
       <c r="I87">
-        <v>4.3820269999999999</v>
+        <v>4.3438049999999997</v>
       </c>
       <c r="J87">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K87">
-        <v>512000</v>
+        <v>456533</v>
       </c>
       <c r="L87">
-        <v>505.75424199999998</v>
+        <v>482.54257200000001</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C88">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D88">
-        <v>2.6644489999999998</v>
+        <v>2.6520049999999999</v>
       </c>
       <c r="E88">
-        <v>6.3398500000000002</v>
+        <v>6.2854020000000004</v>
       </c>
       <c r="F88">
-        <v>2.517906</v>
+        <v>2.5070709999999998</v>
       </c>
       <c r="G88">
-        <v>40.193699000000002</v>
+        <v>39.506283000000003</v>
       </c>
       <c r="H88">
-        <v>1.480342</v>
+        <v>1.4717169999999999</v>
       </c>
       <c r="I88">
-        <v>4.3944489999999998</v>
+        <v>4.3567090000000004</v>
       </c>
       <c r="J88">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K88">
-        <v>531441</v>
+        <v>474552</v>
       </c>
       <c r="L88">
-        <v>513.52783199999999</v>
+        <v>490.26138300000002</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C89">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D89">
-        <v>2.6684709999999998</v>
+        <v>2.6562169999999998</v>
       </c>
       <c r="E89">
-        <v>6.3575520000000001</v>
+        <v>6.3037809999999999</v>
       </c>
       <c r="F89">
-        <v>2.5214189999999999</v>
+        <v>2.5107330000000001</v>
       </c>
       <c r="G89">
-        <v>40.418467999999997</v>
+        <v>39.737651999999997</v>
       </c>
       <c r="H89">
-        <v>1.4831300000000001</v>
+        <v>1.474637</v>
       </c>
       <c r="I89">
-        <v>4.4067189999999998</v>
+        <v>4.3694480000000002</v>
       </c>
       <c r="J89">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K89">
-        <v>551368</v>
+        <v>493039</v>
       </c>
       <c r="L89">
-        <v>521.31927499999995</v>
+        <v>497.99868800000002</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C90">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D90">
-        <v>2.672434</v>
+        <v>2.6603650000000001</v>
       </c>
       <c r="E90">
-        <v>6.3750400000000003</v>
+        <v>6.3219279999999998</v>
       </c>
       <c r="F90">
-        <v>2.5248840000000001</v>
+        <v>2.5143439999999999</v>
       </c>
       <c r="G90">
-        <v>40.641128999999999</v>
+        <v>39.966774000000001</v>
       </c>
       <c r="H90">
-        <v>1.4858769999999999</v>
+        <v>1.477511</v>
       </c>
       <c r="I90">
-        <v>4.4188400000000003</v>
+        <v>4.3820269999999999</v>
       </c>
       <c r="J90">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K90">
-        <v>571787</v>
+        <v>512000</v>
       </c>
       <c r="L90">
-        <v>529.12829599999998</v>
+        <v>505.75424199999998</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C91">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D91">
-        <v>2.676339</v>
+        <v>2.6644489999999998</v>
       </c>
       <c r="E91">
-        <v>6.3923170000000002</v>
+        <v>6.3398500000000002</v>
       </c>
       <c r="F91">
-        <v>2.5283030000000002</v>
+        <v>2.517906</v>
       </c>
       <c r="G91">
-        <v>40.861721000000003</v>
+        <v>40.193699000000002</v>
       </c>
       <c r="H91">
-        <v>1.4885839999999999</v>
+        <v>1.480342</v>
       </c>
       <c r="I91">
-        <v>4.4308170000000002</v>
+        <v>4.3944489999999998</v>
       </c>
       <c r="J91">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K91">
-        <v>592704</v>
+        <v>531441</v>
       </c>
       <c r="L91">
-        <v>536.95465100000001</v>
+        <v>513.52783199999999</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C92">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D92">
-        <v>2.6801870000000001</v>
+        <v>2.6684709999999998</v>
       </c>
       <c r="E92">
-        <v>6.4093910000000003</v>
+        <v>6.3575520000000001</v>
       </c>
       <c r="F92">
-        <v>2.5316770000000002</v>
+        <v>2.5214189999999999</v>
       </c>
       <c r="G92">
-        <v>41.080292</v>
+        <v>40.418467999999997</v>
       </c>
       <c r="H92">
-        <v>1.4912510000000001</v>
+        <v>1.4831300000000001</v>
       </c>
       <c r="I92">
-        <v>4.4426509999999997</v>
+        <v>4.4067189999999998</v>
       </c>
       <c r="J92">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="K92">
-        <v>614125</v>
+        <v>551368</v>
       </c>
       <c r="L92">
-        <v>544.79821800000002</v>
+        <v>521.31927499999995</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C93">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D93">
-        <v>2.68398</v>
+        <v>2.672434</v>
       </c>
       <c r="E93">
-        <v>6.4262649999999999</v>
+        <v>6.3750400000000003</v>
       </c>
       <c r="F93">
-        <v>2.5350079999999999</v>
+        <v>2.5248840000000001</v>
       </c>
       <c r="G93">
-        <v>41.296878999999997</v>
+        <v>40.641128999999999</v>
       </c>
       <c r="H93">
-        <v>1.493881</v>
+        <v>1.4858769999999999</v>
       </c>
       <c r="I93">
-        <v>4.4543470000000003</v>
+        <v>4.4188400000000003</v>
       </c>
       <c r="J93">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="K93">
-        <v>636056</v>
+        <v>571787</v>
       </c>
       <c r="L93">
-        <v>552.65875200000005</v>
+        <v>529.12829599999998</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C94">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D94">
-        <v>2.6877200000000001</v>
+        <v>2.676339</v>
       </c>
       <c r="E94">
-        <v>6.4429439999999998</v>
+        <v>6.3923170000000002</v>
       </c>
       <c r="F94">
-        <v>2.5382959999999999</v>
+        <v>2.5283030000000002</v>
       </c>
       <c r="G94">
-        <v>41.511519999999997</v>
+        <v>40.861721000000003</v>
       </c>
       <c r="H94">
-        <v>1.4964729999999999</v>
+        <v>1.4885839999999999</v>
       </c>
       <c r="I94">
-        <v>4.4659079999999998</v>
+        <v>4.4308170000000002</v>
       </c>
       <c r="J94">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K94">
-        <v>658503</v>
+        <v>592704</v>
       </c>
       <c r="L94">
-        <v>560.53607199999999</v>
+        <v>536.95465100000001</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C95">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D95">
-        <v>2.6914069999999999</v>
+        <v>2.6801870000000001</v>
       </c>
       <c r="E95">
-        <v>6.4594319999999996</v>
+        <v>6.4093910000000003</v>
       </c>
       <c r="F95">
-        <v>2.5415410000000001</v>
+        <v>2.5316770000000002</v>
       </c>
       <c r="G95">
-        <v>41.724257999999999</v>
+        <v>41.080292</v>
       </c>
       <c r="H95">
-        <v>1.499028</v>
+        <v>1.4912510000000001</v>
       </c>
       <c r="I95">
-        <v>4.4773370000000003</v>
+        <v>4.4426509999999997</v>
       </c>
       <c r="J95">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="K95">
-        <v>681472</v>
+        <v>614125</v>
       </c>
       <c r="L95">
-        <v>568.42999299999997</v>
+        <v>544.79821800000002</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C96">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D96">
-        <v>2.6950440000000002</v>
+        <v>2.68398</v>
       </c>
       <c r="E96">
-        <v>6.475733</v>
+        <v>6.4262649999999999</v>
       </c>
       <c r="F96">
-        <v>2.544746</v>
+        <v>2.5350079999999999</v>
       </c>
       <c r="G96">
-        <v>41.935122999999997</v>
+        <v>41.296878999999997</v>
       </c>
       <c r="H96">
-        <v>1.501549</v>
+        <v>1.493881</v>
       </c>
       <c r="I96">
-        <v>4.4886359999999996</v>
+        <v>4.4543470000000003</v>
       </c>
       <c r="J96">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K96">
-        <v>704969</v>
+        <v>636056</v>
       </c>
       <c r="L96">
-        <v>576.34027100000003</v>
+        <v>552.65875200000005</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C97">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D97">
-        <v>2.6986300000000001</v>
+        <v>2.6877200000000001</v>
       </c>
       <c r="E97">
-        <v>6.4918529999999999</v>
+        <v>6.4429439999999998</v>
       </c>
       <c r="F97">
-        <v>2.547911</v>
+        <v>2.5382959999999999</v>
       </c>
       <c r="G97">
-        <v>42.144157</v>
+        <v>41.511519999999997</v>
       </c>
       <c r="H97">
-        <v>1.504035</v>
+        <v>1.4964729999999999</v>
       </c>
       <c r="I97">
-        <v>4.4998100000000001</v>
+        <v>4.4659079999999998</v>
       </c>
       <c r="J97">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K97">
-        <v>729000</v>
+        <v>658503</v>
       </c>
       <c r="L97">
-        <v>584.26678500000003</v>
+        <v>560.53607199999999</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C98">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D98">
-        <v>2.702169</v>
+        <v>2.6914069999999999</v>
       </c>
       <c r="E98">
-        <v>6.5077949999999998</v>
+        <v>6.4594319999999996</v>
       </c>
       <c r="F98">
-        <v>2.5510380000000001</v>
+        <v>2.5415410000000001</v>
       </c>
       <c r="G98">
-        <v>42.351391</v>
+        <v>41.724257999999999</v>
       </c>
       <c r="H98">
-        <v>1.506488</v>
+        <v>1.499028</v>
       </c>
       <c r="I98">
-        <v>4.510859</v>
+        <v>4.4773370000000003</v>
       </c>
       <c r="J98">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K98">
-        <v>753571</v>
+        <v>681472</v>
       </c>
       <c r="L98">
-        <v>592.20929000000001</v>
+        <v>568.42999299999997</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C99">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D99">
-        <v>2.70566</v>
+        <v>2.6950440000000002</v>
       </c>
       <c r="E99">
-        <v>6.5235620000000001</v>
+        <v>6.475733</v>
       </c>
       <c r="F99">
-        <v>2.5541269999999998</v>
+        <v>2.544746</v>
       </c>
       <c r="G99">
-        <v>42.556862000000002</v>
+        <v>41.935122999999997</v>
       </c>
       <c r="H99">
-        <v>1.5089079999999999</v>
+        <v>1.501549</v>
       </c>
       <c r="I99">
-        <v>4.5217890000000001</v>
+        <v>4.4886359999999996</v>
       </c>
       <c r="J99">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K99">
-        <v>778688</v>
+        <v>704969</v>
       </c>
       <c r="L99">
-        <v>600.16772500000002</v>
+        <v>576.34027100000003</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C100">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D100">
-        <v>2.7091050000000001</v>
+        <v>2.6986300000000001</v>
       </c>
       <c r="E100">
-        <v>6.5391589999999997</v>
+        <v>6.4918529999999999</v>
       </c>
       <c r="F100">
-        <v>2.557178</v>
+        <v>2.547911</v>
       </c>
       <c r="G100">
-        <v>42.760596999999997</v>
+        <v>42.144157</v>
       </c>
       <c r="H100">
-        <v>1.511296</v>
+        <v>1.504035</v>
       </c>
       <c r="I100">
-        <v>4.5325990000000003</v>
+        <v>4.4998100000000001</v>
       </c>
       <c r="J100">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K100">
-        <v>804357</v>
+        <v>729000</v>
       </c>
       <c r="L100">
-        <v>608.14178500000003</v>
+        <v>584.26678500000003</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C101">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D101">
-        <v>2.7125050000000002</v>
+        <v>2.702169</v>
       </c>
       <c r="E101">
-        <v>6.554589</v>
+        <v>6.5077949999999998</v>
       </c>
       <c r="F101">
-        <v>2.5601929999999999</v>
+        <v>2.5510380000000001</v>
       </c>
       <c r="G101">
-        <v>42.962634999999999</v>
+        <v>42.351391</v>
       </c>
       <c r="H101">
-        <v>1.513652</v>
+        <v>1.506488</v>
       </c>
       <c r="I101">
-        <v>4.5432949999999996</v>
+        <v>4.510859</v>
       </c>
       <c r="J101">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="K101">
-        <v>830584</v>
+        <v>753571</v>
       </c>
       <c r="L101">
-        <v>616.131348</v>
+        <v>592.20929000000001</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C102">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D102">
-        <v>2.715862</v>
+        <v>2.70566</v>
       </c>
       <c r="E102">
-        <v>6.5698559999999997</v>
+        <v>6.5235620000000001</v>
       </c>
       <c r="F102">
-        <v>2.5631729999999999</v>
+        <v>2.5541269999999998</v>
       </c>
       <c r="G102">
-        <v>43.163001999999999</v>
+        <v>42.556862000000002</v>
       </c>
       <c r="H102">
-        <v>1.515979</v>
+        <v>1.5089079999999999</v>
       </c>
       <c r="I102">
-        <v>4.553877</v>
+        <v>4.5217890000000001</v>
       </c>
       <c r="J102">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K102">
-        <v>857375</v>
+        <v>778688</v>
       </c>
       <c r="L102">
-        <v>624.13629200000003</v>
+        <v>600.16772500000002</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C103">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D103">
-        <v>2.7191749999999999</v>
+        <v>2.7091050000000001</v>
       </c>
       <c r="E103">
-        <v>6.584962</v>
+        <v>6.5391589999999997</v>
       </c>
       <c r="F103">
-        <v>2.5661179999999999</v>
+        <v>2.557178</v>
       </c>
       <c r="G103">
-        <v>43.361732000000003</v>
+        <v>42.760596999999997</v>
       </c>
       <c r="H103">
-        <v>1.518276</v>
+        <v>1.511296</v>
       </c>
       <c r="I103">
-        <v>4.5643479999999998</v>
+        <v>4.5325990000000003</v>
       </c>
       <c r="J103">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K103">
-        <v>884736</v>
+        <v>804357</v>
       </c>
       <c r="L103">
-        <v>632.15637200000003</v>
+        <v>608.14178500000003</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C104">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D104">
-        <v>2.7224469999999998</v>
+        <v>2.7125050000000002</v>
       </c>
       <c r="E104">
-        <v>6.5999129999999999</v>
+        <v>6.554589</v>
       </c>
       <c r="F104">
-        <v>2.5690300000000001</v>
+        <v>2.5601929999999999</v>
       </c>
       <c r="G104">
-        <v>43.558849000000002</v>
+        <v>42.962634999999999</v>
       </c>
       <c r="H104">
-        <v>1.5205439999999999</v>
+        <v>1.513652</v>
       </c>
       <c r="I104">
-        <v>4.5747109999999997</v>
+        <v>4.5432949999999996</v>
       </c>
       <c r="J104">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K104">
-        <v>912673</v>
+        <v>830584</v>
       </c>
       <c r="L104">
-        <v>640.19152799999995</v>
+        <v>616.131348</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C105">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D105">
-        <v>2.7256779999999998</v>
+        <v>2.715862</v>
       </c>
       <c r="E105">
-        <v>6.6147099999999996</v>
+        <v>6.5698559999999997</v>
       </c>
       <c r="F105">
-        <v>2.5719080000000001</v>
+        <v>2.5631729999999999</v>
       </c>
       <c r="G105">
-        <v>43.754387000000001</v>
+        <v>43.163001999999999</v>
       </c>
       <c r="H105">
-        <v>1.522783</v>
+        <v>1.515979</v>
       </c>
       <c r="I105">
-        <v>4.5849679999999999</v>
+        <v>4.553877</v>
       </c>
       <c r="J105">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K105">
-        <v>941192</v>
+        <v>857375</v>
       </c>
       <c r="L105">
-        <v>648.24157700000001</v>
+        <v>624.13629200000003</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C106">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D106">
-        <v>2.728869</v>
+        <v>2.7191749999999999</v>
       </c>
       <c r="E106">
-        <v>6.6293559999999996</v>
+        <v>6.584962</v>
       </c>
       <c r="F106">
-        <v>2.574754</v>
+        <v>2.5661179999999999</v>
       </c>
       <c r="G106">
-        <v>43.948368000000002</v>
+        <v>43.361732000000003</v>
       </c>
       <c r="H106">
-        <v>1.5249950000000001</v>
+        <v>1.518276</v>
       </c>
       <c r="I106">
-        <v>4.5951199999999996</v>
+        <v>4.5643479999999998</v>
       </c>
       <c r="J106">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="K106">
-        <v>970299</v>
+        <v>884736</v>
       </c>
       <c r="L106">
-        <v>656.30633499999999</v>
+        <v>632.15637200000003</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107">
+        <v>97</v>
+      </c>
+      <c r="C107">
+        <v>97</v>
+      </c>
+      <c r="D107">
+        <v>2.7224469999999998</v>
+      </c>
+      <c r="E107">
+        <v>6.5999129999999999</v>
+      </c>
+      <c r="F107">
+        <v>2.5690300000000001</v>
+      </c>
+      <c r="G107">
+        <v>43.558849000000002</v>
+      </c>
+      <c r="H107">
+        <v>1.5205439999999999</v>
+      </c>
+      <c r="I107">
+        <v>4.5747109999999997</v>
+      </c>
+      <c r="J107">
+        <v>97</v>
+      </c>
+      <c r="K107">
+        <v>912673</v>
+      </c>
+      <c r="L107">
+        <v>640.19152799999995</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>98</v>
+      </c>
+      <c r="C108">
+        <v>98</v>
+      </c>
+      <c r="D108">
+        <v>2.7256779999999998</v>
+      </c>
+      <c r="E108">
+        <v>6.6147099999999996</v>
+      </c>
+      <c r="F108">
+        <v>2.5719080000000001</v>
+      </c>
+      <c r="G108">
+        <v>43.754387000000001</v>
+      </c>
+      <c r="H108">
+        <v>1.522783</v>
+      </c>
+      <c r="I108">
+        <v>4.5849679999999999</v>
+      </c>
+      <c r="J108">
+        <v>98</v>
+      </c>
+      <c r="K108">
+        <v>941192</v>
+      </c>
+      <c r="L108">
+        <v>648.24157700000001</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>99</v>
+      </c>
+      <c r="C109">
+        <v>99</v>
+      </c>
+      <c r="D109">
+        <v>2.728869</v>
+      </c>
+      <c r="E109">
+        <v>6.6293559999999996</v>
+      </c>
+      <c r="F109">
+        <v>2.574754</v>
+      </c>
+      <c r="G109">
+        <v>43.948368000000002</v>
+      </c>
+      <c r="H109">
+        <v>1.5249950000000001</v>
+      </c>
+      <c r="I109">
+        <v>4.5951199999999996</v>
+      </c>
+      <c r="J109">
+        <v>99</v>
+      </c>
+      <c r="K109">
+        <v>970299</v>
+      </c>
+      <c r="L109">
+        <v>656.30633499999999</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A110">
         <v>100</v>
       </c>
-      <c r="C107">
+      <c r="C110">
         <v>100</v>
       </c>
-      <c r="D107">
+      <c r="D110">
         <v>2.732021</v>
       </c>
-      <c r="E107">
+      <c r="E110">
         <v>6.6438560000000004</v>
       </c>
-      <c r="F107">
+      <c r="F110">
         <v>2.5775679999999999</v>
       </c>
-      <c r="G107">
+      <c r="G110">
         <v>44.140822999999997</v>
       </c>
-      <c r="H107">
+      <c r="H110">
         <v>1.52718</v>
       </c>
-      <c r="I107">
+      <c r="I110">
         <v>4.6051700000000002</v>
       </c>
-      <c r="J107">
+      <c r="J110">
         <v>100</v>
       </c>
-      <c r="K107">
+      <c r="K110">
         <v>1000000</v>
       </c>
-      <c r="L107">
+      <c r="L110">
         <v>664.38562000000002</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="J112" t="s">
+    <row r="115" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J115" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="132" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J132" t="s">
+    <row r="135" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J135" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="150" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J150" t="s">
+    <row r="136" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J136" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="153" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J153" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="162" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J162" t="s">
+    <row r="154" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J154" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="165" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J165" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="181" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J181" t="s">
+    <row r="166" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J166" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="184" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J184" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="198" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J198" t="s">
+    <row r="185" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J185" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="201" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J201" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="214" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J214" t="s">
+    <row r="202" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J202" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="217" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J217" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="230" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J230" t="s">
+    <row r="218" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J218" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="233" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J233" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="246" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J246" t="s">
+    <row r="249" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J249" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="261" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J261" t="s">
+    <row r="264" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J264" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="265" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J265" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="277" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J277" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="292" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B292" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="293" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B293" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
